--- a/biology/Botanique/Aporocactus/Aporocactus.xlsx
+++ b/biology/Botanique/Aporocactus/Aporocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporocactus est un genre de la famille des cactus. Il a été récemment inclus dans le genre Disocactus, tout comme les genres Bonifazia, Chiapasia, Heliocereus, Lobeira, Nopalxochia, Pseudonopalxochia et Wittia.
 Il est originaire d'Amérique  centrale et d'Amérique du Sud.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aporocactus flagelliformis Lem. : c'est l'espèce la plus répandue : tiges retombantes (jusqu'à 1,5 m) couvertes de petites fleurs rouges ou roses. Souvent utilisé comme plante d'appartement dans des pots suspendus. Parfois surnommé « cactus queue de rat ».
 Aporocactus martianus : tiges érigées et fleurs rouge écarlate.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un genre épiphyte poussant sur les branches des arbres, mais sans les parasiter.
 Se présente sous forme de tiges retombantes ou rampantes pouvant atteindre 60 cm avec 6 côtes couvertes de nombreuses petites épines.
@@ -578,7 +594,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De par son habitat épiphyte dans les arbres, il ne supporte pas la même sécheresse que les cactus classiques.
 Prévoir donc un sol perméable, bien drainé mais fibreux. Exposition bien ensoleillée. Arrosages réguliers de mars à septembre, avec des apports d'engrais.
